--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
   <si>
     <t>Catégorie</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Enlever les .min</t>
   </si>
   <si>
-    <t>Balises "Button"</t>
-  </si>
-  <si>
     <t>Les enlever</t>
   </si>
   <si>
@@ -210,7 +207,16 @@
     <t>Les supprimer</t>
   </si>
   <si>
-    <t>width et height</t>
+    <t>Pas de class aux labels</t>
+  </si>
+  <si>
+    <t>Width et height</t>
+  </si>
+  <si>
+    <t>Ajouter des class aux label</t>
+  </si>
+  <si>
+    <t>symbole rouge avec Wave</t>
   </si>
 </sst>
 </file>
@@ -278,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -287,6 +293,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,7 +504,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
@@ -635,16 +642,19 @@
         <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="E7" s="4" t="b">
         <v>0</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1">
@@ -652,13 +662,13 @@
         <v>19</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="E8" s="4" t="b">
         <v>0</v>
@@ -669,13 +679,13 @@
         <v>19</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="E9" s="4" t="b">
         <v>0</v>
@@ -686,13 +696,13 @@
         <v>11</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="4" t="b">
         <v>0</v>
@@ -703,13 +713,13 @@
         <v>19</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="E11" s="4" t="b">
         <v>0</v>
@@ -720,13 +730,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" s="4" t="b">
         <v>0</v>
@@ -737,13 +747,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="E13" s="4" t="b">
         <v>0</v>
@@ -754,13 +764,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="E14" s="4" t="b">
         <v>0</v>
@@ -771,13 +781,13 @@
         <v>19</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="E15" s="4" t="b">
         <v>0</v>
@@ -788,58 +798,70 @@
         <v>19</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E16" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E17" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1">
       <c r="A18" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E18" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E19" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>7</v>
       </c>
@@ -847,37 +869,43 @@
         <v>63</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E20" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1"/>
+      <c r="E21" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="80">
   <si>
     <t>Catégorie</t>
   </si>
@@ -117,9 +117,6 @@
     <t>Liens dans le footer</t>
   </si>
   <si>
-    <t>Suffixes HTML</t>
-  </si>
-  <si>
     <t>Les enlever et les remplacer</t>
   </si>
   <si>
@@ -138,12 +135,6 @@
     <t>Baisser leurs poinds</t>
   </si>
   <si>
-    <t>CSS dans le HTML</t>
-  </si>
-  <si>
-    <t>Enlever/les rajouter dans le CSS</t>
-  </si>
-  <si>
     <t>Bootstrap et Jquery</t>
   </si>
   <si>
@@ -153,9 +144,6 @@
     <t>Les remplacer</t>
   </si>
   <si>
-    <t>Du code en trop</t>
-  </si>
-  <si>
     <t>Les images</t>
   </si>
   <si>
@@ -165,9 +153,6 @@
     <t>Changer pour PNG ou JPG</t>
   </si>
   <si>
-    <t>JS</t>
-  </si>
-  <si>
     <t>Placer au mauvais endroit</t>
   </si>
   <si>
@@ -217,13 +202,70 @@
   </si>
   <si>
     <t>symbole rouge avec Wave</t>
+  </si>
+  <si>
+    <t>https://optimiz.me/la-balise-meta-keywords/</t>
+  </si>
+  <si>
+    <t>http://www.oujood.com/html-attribut/HTML_attribut-lang.php</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Web/HTML/Element/title</t>
+  </si>
+  <si>
+    <t>https://www.209-agency.com/actualites-seo/actus-seo/footer-et-seo-utile-pour-google/</t>
+  </si>
+  <si>
+    <t>https://www.oscar-referencement.com/astuces-optimiser-images-referencement-naturel/</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Glossaire/Entity</t>
+  </si>
+  <si>
+    <t>Entité spécifique en HTML</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Web/CSS/font-size</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Web/HTML/Element/Heading_Elements</t>
+  </si>
+  <si>
+    <t>https://www.developpez.com/actu/246027/La-version-5-0-du-framework-Bootstrap-va-supprimer-jQuery-sa-plus-grande-dependance-cote-client-pour-du-pur-JavaScript/</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Web/Media/Formats/Types_des_images</t>
+  </si>
+  <si>
+    <t>https://initiativedeveloppeur.fr/pourquoi-placer-javascript-fin-et-css-debut/</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Web/CSS/margin</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Web/CSS/height</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Web/CSS/width</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Web/HTML/Element/li</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Apprendre/Commencer_avec_le_web/G%C3%A9rer_les_fichiers</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Web/HTML/Element/a</t>
+  </si>
+  <si>
+    <t>les balises "script" (JS)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -249,6 +291,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -281,10 +329,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -294,8 +346,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -504,7 +559,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
@@ -581,7 +636,9 @@
       <c r="E3" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="7" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
@@ -619,6 +676,9 @@
       <c r="E5" s="4" t="b">
         <v>0</v>
       </c>
+      <c r="F5" s="7" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
@@ -636,19 +696,22 @@
       <c r="E6" s="4" t="b">
         <v>0</v>
       </c>
+      <c r="F6" s="7" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E7" s="4" t="b">
         <v>0</v>
@@ -673,6 +736,9 @@
       <c r="E8" s="4" t="b">
         <v>0</v>
       </c>
+      <c r="F8" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1">
       <c r="A9" s="5" t="s">
@@ -690,6 +756,9 @@
       <c r="E9" s="4" t="b">
         <v>0</v>
       </c>
+      <c r="F9" s="8" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="5" t="s">
@@ -707,22 +776,28 @@
       <c r="E10" s="4" t="b">
         <v>0</v>
       </c>
+      <c r="F10" s="7" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" s="4" t="b">
         <v>0</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
@@ -730,16 +805,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" s="4" t="b">
         <v>0</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
@@ -747,33 +825,39 @@
         <v>7</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="E13" s="4" t="b">
         <v>0</v>
       </c>
+      <c r="F13" s="7" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="4" t="b">
         <v>0</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1">
@@ -792,120 +876,131 @@
       <c r="E15" s="4" t="b">
         <v>0</v>
       </c>
+      <c r="F15" s="7" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="E16" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F16" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="E17" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F17" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="E18" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F18" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E19" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F19" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E21" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1"/>
+      <c r="F21" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -1875,6 +1970,25 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="F5" r:id="rId2"/>
+    <hyperlink ref="F8" r:id="rId3"/>
+    <hyperlink ref="F10" r:id="rId4"/>
+    <hyperlink ref="F11" r:id="rId5"/>
+    <hyperlink ref="F12" r:id="rId6"/>
+    <hyperlink ref="F13" r:id="rId7"/>
+    <hyperlink ref="F9" r:id="rId8"/>
+    <hyperlink ref="F14" r:id="rId9"/>
+    <hyperlink ref="F15" r:id="rId10"/>
+    <hyperlink ref="F16" r:id="rId11"/>
+    <hyperlink ref="F17" r:id="rId12"/>
+    <hyperlink ref="F19" r:id="rId13"/>
+    <hyperlink ref="F20" r:id="rId14"/>
+    <hyperlink ref="F21" r:id="rId15"/>
+    <hyperlink ref="F6" r:id="rId16"/>
+    <hyperlink ref="F18" r:id="rId17"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="84">
   <si>
     <t>Catégorie</t>
   </si>
@@ -259,6 +259,18 @@
   </si>
   <si>
     <t>les balises "script" (JS)</t>
+  </si>
+  <si>
+    <t>Pas de description</t>
+  </si>
+  <si>
+    <t>Mauvais référencement</t>
+  </si>
+  <si>
+    <t>En rajouter une</t>
+  </si>
+  <si>
+    <t>https://www.journalducm.com/balise-meta-description/</t>
   </si>
 </sst>
 </file>
@@ -559,7 +571,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
@@ -984,13 +996,32 @@
         <v>56</v>
       </c>
       <c r="E21" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="24" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="25" spans="1:6" ht="15.75" customHeight="1"/>
@@ -1988,6 +2019,7 @@
     <hyperlink ref="F21" r:id="rId15"/>
     <hyperlink ref="F6" r:id="rId16"/>
     <hyperlink ref="F18" r:id="rId17"/>
+    <hyperlink ref="F22" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="88">
   <si>
     <t>Catégorie</t>
   </si>
@@ -271,6 +271,18 @@
   </si>
   <si>
     <t>https://www.journalducm.com/balise-meta-description/</t>
+  </si>
+  <si>
+    <t>la balise form</t>
+  </si>
+  <si>
+    <t>Inultile dans le cas du site</t>
+  </si>
+  <si>
+    <t>l'enlever</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Web/HTML/Element/Form</t>
   </si>
 </sst>
 </file>
@@ -571,7 +583,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
@@ -646,7 +658,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>61</v>
@@ -666,7 +678,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>15</v>
@@ -686,7 +698,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>62</v>
@@ -706,7 +718,7 @@
         <v>22</v>
       </c>
       <c r="E6" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>77</v>
@@ -726,7 +738,7 @@
         <v>59</v>
       </c>
       <c r="E7" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>15</v>
@@ -746,7 +758,7 @@
         <v>27</v>
       </c>
       <c r="E8" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>63</v>
@@ -766,7 +778,7 @@
         <v>30</v>
       </c>
       <c r="E9" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>69</v>
@@ -786,7 +798,7 @@
         <v>23</v>
       </c>
       <c r="E10" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>64</v>
@@ -806,7 +818,7 @@
         <v>32</v>
       </c>
       <c r="E11" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>66</v>
@@ -826,7 +838,7 @@
         <v>34</v>
       </c>
       <c r="E12" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>68</v>
@@ -846,7 +858,7 @@
         <v>37</v>
       </c>
       <c r="E13" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>65</v>
@@ -886,7 +898,7 @@
         <v>43</v>
       </c>
       <c r="E15" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>71</v>
@@ -906,7 +918,7 @@
         <v>45</v>
       </c>
       <c r="E16" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>72</v>
@@ -926,7 +938,7 @@
         <v>48</v>
       </c>
       <c r="E17" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>73</v>
@@ -946,7 +958,7 @@
         <v>51</v>
       </c>
       <c r="E18" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>78</v>
@@ -966,7 +978,7 @@
         <v>53</v>
       </c>
       <c r="E19" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>74</v>
@@ -1022,7 +1034,26 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="25" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="26" spans="1:6" ht="15.75" customHeight="1"/>
@@ -2020,6 +2051,7 @@
     <hyperlink ref="F6" r:id="rId16"/>
     <hyperlink ref="F18" r:id="rId17"/>
     <hyperlink ref="F22" r:id="rId18"/>
+    <hyperlink ref="F23" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -289,7 +289,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -321,6 +321,12 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -360,7 +366,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -372,6 +378,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -583,7 +590,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
@@ -645,16 +652,16 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="4" t="b">
@@ -665,16 +672,16 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="4" t="b">
@@ -685,16 +692,16 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="4" t="b">
@@ -745,16 +752,16 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="9" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="4" t="b">
@@ -765,16 +772,16 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="4" t="b">
@@ -825,16 +832,16 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="9" t="s">
         <v>34</v>
       </c>
       <c r="E12" s="4" t="b">
@@ -845,16 +852,16 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="4" t="b">
@@ -905,16 +912,16 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E16" s="6" t="b">
@@ -965,16 +972,16 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="9" t="s">
         <v>53</v>
       </c>
       <c r="E19" s="6" t="b">
@@ -1015,16 +1022,16 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="9" t="s">
         <v>82</v>
       </c>
       <c r="E22" s="6" t="b">
@@ -2054,6 +2061,6 @@
     <hyperlink ref="F23" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId20"/>
 </worksheet>
 </file>
--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -273,16 +273,16 @@
     <t>https://www.journalducm.com/balise-meta-description/</t>
   </si>
   <si>
-    <t>la balise form</t>
-  </si>
-  <si>
-    <t>Inultile dans le cas du site</t>
-  </si>
-  <si>
-    <t>l'enlever</t>
-  </si>
-  <si>
-    <t>https://developer.mozilla.org/fr/docs/Web/HTML/Element/Form</t>
+    <t>la balise label</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Web/HTML/Element/Label</t>
+  </si>
+  <si>
+    <t>Pas de classe</t>
+  </si>
+  <si>
+    <t>En ajouter une</t>
   </si>
 </sst>
 </file>
@@ -589,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
@@ -1049,16 +1049,16 @@
         <v>84</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E23" s="6" t="b">
         <v>1</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1"/>
@@ -2058,9 +2058,8 @@
     <hyperlink ref="F6" r:id="rId16"/>
     <hyperlink ref="F18" r:id="rId17"/>
     <hyperlink ref="F22" r:id="rId18"/>
-    <hyperlink ref="F23" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId20"/>
+  <pageSetup orientation="landscape" r:id="rId19"/>
 </worksheet>
 </file>